--- a/public/uploads/excel/currency.xlsx
+++ b/public/uploads/excel/currency.xlsx
@@ -11,19 +11,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>year</t>
+    <t>name</t>
   </si>
   <si>
-    <t>value</t>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>rate_date</t>
+  </si>
+  <si>
+    <t>rate_changes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -35,16 +41,6 @@
       <sz val="9.0"/>
       <color rgb="FF222B35"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -86,24 +82,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -320,10 +307,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="17.25"/>
-    <col customWidth="1" min="2" max="2" width="14.38"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -332,53 +315,11 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>1991.0</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>1992.0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>1993.0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5">
-        <v>1994.0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>1995.0</v>
-      </c>
-      <c r="B6" s="5">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5">
-        <v>1996.0</v>
-      </c>
-      <c r="B7" s="5">
-        <v>9.6</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
